--- a/input1.xlsx
+++ b/input1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nikita\Mine\go\scraper-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA46F790-FB79-4482-8FAC-0E7EF691F508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E492B1-534A-4CC0-B145-3D8826B430CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="0" windowWidth="20115" windowHeight="15600" xr2:uid="{740123F6-5E4B-49E7-8D02-37ACFCCF7A66}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>http://google.com</t>
   </si>
@@ -180,9 +180,6 @@
     <t>https://css-tricks.com/snippets/css/complete-guide-grid/</t>
   </si>
   <si>
-    <t>http://thesassway.com/beginner</t>
-  </si>
-  <si>
     <t>https://basarat.gitbooks.io/typescript/content/</t>
   </si>
   <si>
@@ -226,6 +223,111 @@
   </si>
   <si>
     <t>https://postgrespro.ru/docs/postgresql/12/tutorial-accessdb</t>
+  </si>
+  <si>
+    <t>https://waksoft.susu.ru/blog/2017/01/19/61-css-ntxt-effects/</t>
+  </si>
+  <si>
+    <t>http://beloweb.ru/javascript-jquery/15-potryasayushhih-animirovannyih-effektov-dlya-teksta-na-css.html</t>
+  </si>
+  <si>
+    <t>http://nisnom.com/kollektsiya-potryasayushhih-effektov-dlya-teksta-html-css-i-javascript-jquery/</t>
+  </si>
+  <si>
+    <t>https://slides.com/sdrasner/svg-can-do-that#/2</t>
+  </si>
+  <si>
+    <t>https://owlcarousel2.github.io/OwlCarousel2/</t>
+  </si>
+  <si>
+    <t>https://htmlacademy.ru/blog/35-pure-css-parallax-websites</t>
+  </si>
+  <si>
+    <t>http://fotorama.io/#birdwatcher__fcee6f7e-2e3b-4a0e-840f-672c0624d6e7</t>
+  </si>
+  <si>
+    <t>https://www.upwork.com/jobs/~012e219d23ea4a3cb4</t>
+  </si>
+  <si>
+    <t>https://helpx.adobe.com/illustrator/using/gradients.html</t>
+  </si>
+  <si>
+    <t>https://loading.io/</t>
+  </si>
+  <si>
+    <t>http://dimsemenov.com/plugins/magnific-popup/</t>
+  </si>
+  <si>
+    <t>https://tympanus.net/Development/CreativeLinkEffects/</t>
+  </si>
+  <si>
+    <t>https://css-tricks.com/drag-and-drop-file-uploading/</t>
+  </si>
+  <si>
+    <t>https://medium.com/@agm1984/use-react-to-make-a-photo-follow-the-mouse-aka-transform-perspective-or-tilt-7c38f1b3a623</t>
+  </si>
+  <si>
+    <t>https://css-tricks.com/animate-a-container-on-mouse-over-using-perspective-and-transform/</t>
+  </si>
+  <si>
+    <t>https://reactjsexample.com/</t>
+  </si>
+  <si>
+    <t>https://redstapler.co/web-design-trends-2019/</t>
+  </si>
+  <si>
+    <t>http://imagehover.io/</t>
+  </si>
+  <si>
+    <t>https://kushagragour.in/lab/hint/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a-74Zy9EfMQ&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/jareware/4738651</t>
+  </si>
+  <si>
+    <t>https://sass-scss.ru/documentation/sassscript/mapi/</t>
+  </si>
+  <si>
+    <t>https://habr.com/ru/post/359192/</t>
+  </si>
+  <si>
+    <t>https://medium.com/@mad8/%D0%B1%D0%B0%D0%B7%D0%BE%D0%B2%D1%8B%D0%B9-%D0%BD%D0%B0%D0%B1%D0%BE%D1%80-javascript-%D0%B0%D0%BB%D0%B3%D0%BE%D1%80%D0%B8%D1%82%D0%BC%D0%BE%D0%B2-%D0%B4%D0%BB%D1%8F-%D0%BD%D0%B0%D1%87%D0%B8%D0%BD%D0%B0%D1%8E%D1%89%D0%B8%D1%85-ba45845afa36</t>
+  </si>
+  <si>
+    <t>https://coursehunters.net/course/algoritmy-v-javascript-s-nulya</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6Gv8vg0kcHc&amp;index=27&amp;t=0s&amp;list=PLLXdhg_r2hKA7DPDsunoDZ-Z769jWn4R8</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/%D0%90%D0%BB%D0%B3%D0%BE%D1%80%D0%B8%D1%82%D0%BC</t>
+  </si>
+  <si>
+    <t>https://github.com/trekhleb/javascript-algorithms</t>
+  </si>
+  <si>
+    <t>https://habr.com/company/ruvds/blog/414377/</t>
+  </si>
+  <si>
+    <t>https://habr.com/company/ruvds/blog/417383/</t>
+  </si>
+  <si>
+    <t>https://habr.com/post/417503/</t>
+  </si>
+  <si>
+    <t>https://habr.com/post/418257/</t>
+  </si>
+  <si>
+    <t>https://habr.com/post/418581/</t>
+  </si>
+  <si>
+    <t>https://tinyjpg.com/</t>
+  </si>
+  <si>
+    <t>http://www.videosmaller.com/ru/</t>
   </si>
 </sst>
 </file>
@@ -278,14 +380,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -605,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D134268-FAB2-4507-8931-3C7EC3F77D27}">
-  <dimension ref="A1:A377"/>
+  <dimension ref="A1:A99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,32 +714,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -682,7 +779,7 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -932,311 +1029,184 @@
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="2"/>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="2"/>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="2"/>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="2"/>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="3"/>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="4"/>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="4"/>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="1"/>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="1"/>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="1"/>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1"/>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="1"/>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="1"/>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="1"/>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="1"/>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1"/>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="1"/>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="1"/>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="1"/>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="1"/>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="1"/>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="1"/>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="1"/>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="1"/>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="1"/>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="1"/>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="1"/>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="1"/>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="1"/>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="1"/>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="1"/>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="1"/>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="1"/>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="1"/>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="1"/>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="1"/>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="1"/>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="1"/>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="1"/>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1246,7 +1216,7 @@
     <hyperlink ref="A4" r:id="rId4" xr:uid="{CFB1F1C2-AB66-497B-B17C-DB6DDAFC80A0}"/>
     <hyperlink ref="A5" r:id="rId5" xr:uid="{21690469-3C00-41FA-A20A-26B0EA5748F0}"/>
     <hyperlink ref="A6" r:id="rId6" xr:uid="{1CE02B0D-4D9F-4AD0-870C-1C56E45C99CF}"/>
-    <hyperlink ref="A65" r:id="rId7" xr:uid="{9D8551EB-5065-428F-AFD5-0180D9D0734C}"/>
+    <hyperlink ref="A64" r:id="rId7" xr:uid="{9D8551EB-5065-428F-AFD5-0180D9D0734C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
